--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Analisis_Sensibilidad/sensibilidad_metricas_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Analisis_Sensibilidad/sensibilidad_metricas_Lineal_No_Estacionario_ARIMA.xlsx
@@ -94,13 +94,13 @@
     <t>EnCQR-LSTM</t>
   </si>
   <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
     <t>Alta</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -522,49 +522,49 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>3.003704592836375</v>
+        <v>2.030134265783019</v>
       </c>
       <c r="C2">
-        <v>51.88208602679809</v>
+        <v>17.17569962708269</v>
       </c>
       <c r="D2">
-        <v>0.9818480039455191</v>
+        <v>0.7322360897266891</v>
       </c>
       <c r="E2">
-        <v>0.1314415260889343</v>
+        <v>0.06465297834746775</v>
       </c>
       <c r="F2">
-        <v>2.090634640054375</v>
+        <v>2.030134265783019</v>
       </c>
       <c r="G2">
-        <v>36.11090335067907</v>
+        <v>17.17569962708269</v>
       </c>
       <c r="H2">
-        <v>0.4414582955572321</v>
+        <v>-0.5064954001821032</v>
       </c>
       <c r="I2">
-        <v>0.4567495939622982</v>
+        <v>0.3838556122926823</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="K2">
-        <v>0.747060078104662</v>
+        <v>0.6238376647810728</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2">
-        <v>5.789483081472292</v>
+        <v>10.01552436533117</v>
       </c>
       <c r="O2">
-        <v>8.793187674308667</v>
+        <v>12.04565863111419</v>
       </c>
       <c r="P2">
-        <v>7.469846350393053</v>
+        <v>11.32563585534136</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
@@ -575,49 +575,49 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.005757003033573405</v>
+        <v>0.005791795016345191</v>
       </c>
       <c r="C3">
-        <v>1.048278241144327</v>
+        <v>1.049775846210685</v>
       </c>
       <c r="D3">
-        <v>0.002215877789142066</v>
+        <v>0.002191313612074159</v>
       </c>
       <c r="E3">
-        <v>0.004047497053092473</v>
+        <v>0.003982849917968701</v>
       </c>
       <c r="F3">
-        <v>0.005757003033573405</v>
+        <v>0.005791795016345191</v>
       </c>
       <c r="G3">
-        <v>1.048278241144327</v>
+        <v>1.049775846210685</v>
       </c>
       <c r="H3">
-        <v>0.1801368996686842</v>
+        <v>0.1646435646602747</v>
       </c>
       <c r="I3">
-        <v>0.7718890993033487</v>
+        <v>0.7913202856130553</v>
       </c>
       <c r="J3">
-        <v>0.09999999999999999</v>
+        <v>-0.4</v>
       </c>
       <c r="K3">
-        <v>0.8728885715695383</v>
+        <v>0.5046315754686911</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N3">
-        <v>0.54443342947375</v>
+        <v>0.5459255108496166</v>
       </c>
       <c r="O3">
-        <v>0.5501904325073234</v>
+        <v>0.5517173058659618</v>
       </c>
       <c r="P3">
-        <v>0.5474686602795754</v>
+        <v>0.5501873425327946</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -628,49 +628,49 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.05811909781320312</v>
+        <v>0.05241568489567516</v>
       </c>
       <c r="C4">
-        <v>6.118046476625182</v>
+        <v>4.871855989574422</v>
       </c>
       <c r="D4">
-        <v>0.01887173458565528</v>
+        <v>0.01741093039715763</v>
       </c>
       <c r="E4">
-        <v>0.01975914124552791</v>
+        <v>0.01625212321850282</v>
       </c>
       <c r="F4">
-        <v>0.05811909781320312</v>
+        <v>0.03389831414250111</v>
       </c>
       <c r="G4">
-        <v>6.118046476625182</v>
+        <v>3.150730647139664</v>
       </c>
       <c r="H4">
-        <v>0.3939996904626583</v>
+        <v>0.4795361056663982</v>
       </c>
       <c r="I4">
-        <v>0.511643540574183</v>
+        <v>0.4137180400369345</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K4">
-        <v>0.6238376647810728</v>
+        <v>0.2847569798652937</v>
       </c>
       <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
         <v>40</v>
       </c>
-      <c r="M4">
-        <v>50</v>
-      </c>
       <c r="N4">
-        <v>0.9306532945678907</v>
+        <v>1.041989089094431</v>
       </c>
       <c r="O4">
-        <v>0.9887723923810938</v>
+        <v>1.094404773990106</v>
       </c>
       <c r="P4">
-        <v>0.9550888042731372</v>
+        <v>1.071301894717086</v>
       </c>
       <c r="Q4" t="s">
         <v>27</v>
@@ -681,49 +681,49 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5375246616498082</v>
+        <v>0.04764579566228178</v>
       </c>
       <c r="C5">
-        <v>21.78283865045274</v>
+        <v>4.441564775686238</v>
       </c>
       <c r="D5">
-        <v>0.1885030040501084</v>
+        <v>0.01641597046662394</v>
       </c>
       <c r="E5">
-        <v>0.07247955751325232</v>
+        <v>0.01531959083752841</v>
       </c>
       <c r="F5">
-        <v>0.5375246616498082</v>
+        <v>0.03013638207265434</v>
       </c>
       <c r="G5">
-        <v>21.78283865045274</v>
+        <v>2.809328529830527</v>
       </c>
       <c r="H5">
-        <v>0.4224504242659295</v>
+        <v>0.5879793099623227</v>
       </c>
       <c r="I5">
-        <v>0.4785763866184309</v>
+        <v>0.2970694325093826</v>
       </c>
       <c r="J5">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K5">
-        <v>0.6238376647810728</v>
+        <v>0.2847569798652937</v>
       </c>
       <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
         <v>40</v>
       </c>
-      <c r="M5">
-        <v>50</v>
-      </c>
       <c r="N5">
-        <v>2.373998339375346</v>
+        <v>1.045642245849395</v>
       </c>
       <c r="O5">
-        <v>2.911523001025154</v>
+        <v>1.093288041511677</v>
       </c>
       <c r="P5">
-        <v>2.600774763499931</v>
+        <v>1.071567161337608</v>
       </c>
       <c r="Q5" t="s">
         <v>27</v>
@@ -734,49 +734,49 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>2.974955904742162</v>
+        <v>1.918075339362685</v>
       </c>
       <c r="C6">
-        <v>58.04076872199025</v>
+        <v>17.85378768182109</v>
       </c>
       <c r="D6">
-        <v>0.9896365105791265</v>
+        <v>0.7039995785475648</v>
       </c>
       <c r="E6">
-        <v>0.1452768316619248</v>
+        <v>0.06846110507236793</v>
       </c>
       <c r="F6">
-        <v>2.166655305896708</v>
+        <v>1.918075339362685</v>
       </c>
       <c r="G6">
-        <v>42.27099275971383</v>
+        <v>17.85378768182109</v>
       </c>
       <c r="H6">
-        <v>0.4359679323098707</v>
+        <v>-0.4571957989139946</v>
       </c>
       <c r="I6">
-        <v>0.4630314779213251</v>
+        <v>0.4388489361938063</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="K6">
-        <v>0.747060078104662</v>
+        <v>0.6238376647810728</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N6">
-        <v>5.125631466033672</v>
+        <v>9.071006213509772</v>
       </c>
       <c r="O6">
-        <v>8.100587370775834</v>
+        <v>10.98908155287246</v>
       </c>
       <c r="P6">
-        <v>6.812073881691745</v>
+        <v>10.28320500820708</v>
       </c>
       <c r="Q6" t="s">
         <v>26</v>
@@ -787,49 +787,49 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>0.5544470682728779</v>
+        <v>1.535226477875299</v>
       </c>
       <c r="C7">
-        <v>29.261444767025</v>
+        <v>38.08954588707169</v>
       </c>
       <c r="D7">
-        <v>0.2023096801204421</v>
+        <v>0.5416826150829821</v>
       </c>
       <c r="E7">
-        <v>0.09313683588793747</v>
+        <v>0.1778662766273651</v>
       </c>
       <c r="F7">
-        <v>0.5544470682728779</v>
+        <v>1.425107420145321</v>
       </c>
       <c r="G7">
-        <v>29.261444767025</v>
+        <v>35.35745067969096</v>
       </c>
       <c r="H7">
-        <v>-0.001485759426857358</v>
+        <v>-0.6898947722334541</v>
       </c>
       <c r="I7">
-        <v>0.9981082730397549</v>
+        <v>0.1973719607397308</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.1881204043741873</v>
       </c>
       <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="M7">
-        <v>20</v>
-      </c>
       <c r="N7">
-        <v>1.894804144796328</v>
+        <v>2.495345276450561</v>
       </c>
       <c r="O7">
-        <v>2.449251213069206</v>
+        <v>4.030571754325861</v>
       </c>
       <c r="P7">
-        <v>2.172176864198626</v>
+        <v>3.045448667134482</v>
       </c>
       <c r="Q7" t="s">
         <v>28</v>
@@ -840,49 +840,49 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.7762288035735729</v>
+        <v>1.508788576845168</v>
       </c>
       <c r="C8">
-        <v>43.0338415101612</v>
+        <v>35.82365020753473</v>
       </c>
       <c r="D8">
-        <v>0.2617199620345159</v>
+        <v>0.5821008406810028</v>
       </c>
       <c r="E8">
-        <v>0.1212509032374842</v>
+        <v>0.1768728422784908</v>
       </c>
       <c r="F8">
-        <v>0.7762288035735729</v>
+        <v>1.489533515129715</v>
       </c>
       <c r="G8">
-        <v>43.0338415101612</v>
+        <v>35.3664711128592</v>
       </c>
       <c r="H8">
-        <v>0.1887231793904501</v>
+        <v>-0.6325324282492579</v>
       </c>
       <c r="I8">
-        <v>0.7611442819133044</v>
+        <v>0.2521396607588656</v>
       </c>
       <c r="J8">
-        <v>0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="K8">
-        <v>0.6238376647810728</v>
+        <v>0.1881204043741873</v>
       </c>
       <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
         <v>10</v>
       </c>
-      <c r="M8">
-        <v>20</v>
-      </c>
       <c r="N8">
-        <v>1.803763680707633</v>
+        <v>2.702922312761013</v>
       </c>
       <c r="O8">
-        <v>2.579992484281206</v>
+        <v>4.211710889606181</v>
       </c>
       <c r="P8">
-        <v>2.158499071317484</v>
+        <v>3.291069636142728</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
@@ -893,52 +893,52 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>1.383929397441487</v>
+        <v>1.939297122107696</v>
       </c>
       <c r="C9">
-        <v>103.4799806430779</v>
+        <v>52.48108443000691</v>
       </c>
       <c r="D9">
-        <v>0.5962412910116617</v>
+        <v>0.635897427004788</v>
       </c>
       <c r="E9">
-        <v>0.2875349021606113</v>
+        <v>0.1768854651608283</v>
       </c>
       <c r="F9">
-        <v>1.360797464644371</v>
+        <v>1.939297122107696</v>
       </c>
       <c r="G9">
-        <v>101.7503461960404</v>
+        <v>52.48108443000691</v>
       </c>
       <c r="H9">
-        <v>0.09952347560253523</v>
+        <v>-0.1049222303388298</v>
       </c>
       <c r="I9">
-        <v>0.8734922745111998</v>
+        <v>0.8666543837758532</v>
       </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="K9">
-        <v>0.747060078104662</v>
+        <v>0.6238376647810728</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N9">
-        <v>1.337388535290631</v>
+        <v>2.755643412989106</v>
       </c>
       <c r="O9">
-        <v>2.721317932732118</v>
+        <v>4.694940535096802</v>
       </c>
       <c r="P9">
-        <v>2.073631014987576</v>
+        <v>3.59496709594887</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,34 +946,34 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>1.069889205813077</v>
+        <v>1.128115647000873</v>
       </c>
       <c r="C10">
-        <v>27.60522350165998</v>
+        <v>22.59785719156888</v>
       </c>
       <c r="D10">
-        <v>0.4229382746280672</v>
+        <v>0.4371801562833287</v>
       </c>
       <c r="E10">
-        <v>0.09965441696568325</v>
+        <v>0.09109453840593827</v>
       </c>
       <c r="F10">
-        <v>0.8799584262233315</v>
+        <v>0.8192131674509628</v>
       </c>
       <c r="G10">
-        <v>22.70463978520413</v>
+        <v>16.41007481522445</v>
       </c>
       <c r="H10">
-        <v>0.5091286680546097</v>
+        <v>0.4772332644870571</v>
       </c>
       <c r="I10">
-        <v>0.3809673007931972</v>
+        <v>0.4162928361132932</v>
       </c>
       <c r="J10">
-        <v>0.4999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="K10">
-        <v>0.3910022189557705</v>
+        <v>0.2847569798652937</v>
       </c>
       <c r="L10">
         <v>30</v>
@@ -982,16 +982,16 @@
         <v>50</v>
       </c>
       <c r="N10">
-        <v>3.838167971691867</v>
+        <v>4.240101111211249</v>
       </c>
       <c r="O10">
-        <v>4.908057177504944</v>
+        <v>5.368216758212122</v>
       </c>
       <c r="P10">
-        <v>4.244049461186544</v>
+        <v>4.799191740070662</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
